--- a/data/googl/GOOGL_16_12_25.xlsx
+++ b/data/googl/GOOGL_16_12_25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupoanalistas-my.sharepoint.com/personal/aguilabert_afi_es/Documents/Escritorio/ultimas versiones/Heston_strikes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupoanalistas-my.sharepoint.com/personal/aguilabert_afi_es/Documents/Escritorio/volcal/data/googl/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="71" documentId="11_3EC248DE7DFE8C2C98D905748C8B9CF0C8B38405" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64167826-9F0D-437E-A96C-51AF00A8D6DA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="23235" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mid" sheetId="1" r:id="rId1"/>
@@ -527,8 +527,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,9 +1387,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
